--- a/loaded_influencer_data/eviewmitchellugc/eviewmitchellugc_video.xlsx
+++ b/loaded_influencer_data/eviewmitchellugc/eviewmitchellugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,440 +506,907 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7489721392682798358</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>257</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Exciting day in my life! Absolutely loved my day the other day especially seeing the @sistersinthecity podcast tour! 💕</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>11.284046692607</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.50583657587549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7782101167315175</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7489389358496238870</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>280</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>day in the life as a UGC creator…
+-
+#dayinthelife #ugcnet #ugccommunity #ugccreatoruk #workfromhome</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.214285714285714</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7488998199856794902</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>465</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>POV: you choose me to be your next UGC creator
+-
+#ugcnet #ugccommunity #ugccreatoruk #ukugccreator</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>23.01075268817204</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.98924731182796</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.021505376344086</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7488671453747891478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>322</v>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>pov: you hire me as your UGC creator 🎥📸
+-
+Brands if you’re looking for your next UGC creator get in touch 👇🏼
+💌eviewmitchell@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>19.56521739130435</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.77018633540373</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.795031055900621</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.863354037267081</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7488314137060281623</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>331</v>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pov: you hire me as your UGC creator 🎥📸
+-
+Brands if you’re looking for your next UGC creator get in touch 👇🏼
+💌eviewmitchell@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>19.03323262839879</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.31419939577039</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.719033232628399</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.812688821752266</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7487990500302228758</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>438</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Brands, if you are looking for your next UGC creator ready for Spring/Summer get in touch👇🏼
+💌eviewmitchell@yahoo.com</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>13.47031963470319</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.73059360730594</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7487928095333174550</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>449</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>POV: you’re planning your April strategy for your UGC business
+-
+#ugc #ugcstrategy #april2025 #ugccreatoruk</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>14.69933184855234</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.47216035634744</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2271714922049</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.11358574610245</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7487664291575844118</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>POV: you’re planning your April strategy for your UGC business
+-
+#ugc #ugcstrategy #april2025 #ugccreatoruk</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>120</v>
+      </c>
+      <c r="I9" t="n">
+        <v>101.8181818181818</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7487519586527530262</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>339</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>just a girl in her 20’s who committed to content creating…
+-
+#ugcnet #ugccreatoruk #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>24.48377581120944</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.76401179941003</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.71976401179941</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.474926253687316</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7487131567417003286</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>273</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>21</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Is there any other things you should be charging for as a UGC creator?
 -
 #ugcnet #ugccommunity</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.3663003663003663</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7486794890748169494</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>256</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Trying the Dentra White strips for the first time 🦷
 -
 #teethwhitening #ugcnet #ugccommunity</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>3.515625</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>2.734375</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.78125</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7486420547354512662</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>120</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>our application to be your next couples UGC creators ft. @Jonny Barber | UK UGC Creator
 -
 💌 eviewmitchell@yahoo.com</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>12.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7486148189540683030</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>466</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>64</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>what you could be getting when you hire me to be your hotels next UGC creator 👇🏼
 💌eviewmitchell@yahoo.com
 -</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>15.23605150214592</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>13.73390557939914</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.502145922746781</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>1.072961373390558</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7486066656683265302</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>318</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>These are the UGC platforms I’ve signed up to, which other ones do you recommend?
 #ugcnet #ugccommunity</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>9.748427672955975</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>7.547169811320755</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.20125786163522</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>1.572327044025157</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7485667355624836374</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>295</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Trying Snail Mucin on my face… 🐌
 -
 @Jumiso Official @STYLEKOREAN #stylekoreangifted #jumiso</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>10.84745762711864</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>9.152542372881356</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.694915254237288</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>0.3389830508474576</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7485342252118609174</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>344</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>42</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>little bit of organic content created with the @PROTEIN WORLD slender coffee!
 -
 brands if you’re looking for similar organic content creating for your own social media’s get in touch👇🏼</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>13.95348837209302</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>12.20930232558139</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.744186046511628</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7484992712786054422</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>294</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>day in my life as a UGC creator, it’s hard balancing a full time job and being committed to UGC but all I know is hard work pays off in the end 🫶🏼</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>8.503401360544217</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>7.823129251700681</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.6802721088435374</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>0.3401360544217687</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7484586166251982102</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>309</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>33</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>my application to be your next UGC creator🎥
 -
@@ -948,154 +1415,154 @@
 #ugccreatoruk</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>12.29773462783172</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>10.67961165048544</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.618122977346278</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.6472491909385114</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7484210830205078806</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>301</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>54</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>GRWM for a night out 🍾 #grwm #nightoutmakeup #grwmtogoout #ugccreator #ukugccreator #ugccreatoruk</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>19.26910299003323</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>17.94019933554817</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.32890365448505</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L20" t="n">
         <v>0.3322259136212625</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7483893715812060438</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>323</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>49</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Mother’s Day UGC for New Look!
 -
 Brands if you’re looking for any last minute Mother’s Day content please get in touch 👇🏼</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>15.1702786377709</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>15.1702786377709</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.3095975232198143</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7483570168484908310</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>354</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>53</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>brands if you’re looking for your next UGC creator get in touch 👇🏼
 💌 eviewmitchell@yahoo.com
@@ -1103,768 +1570,768 @@
 #ukugccreator</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>18.92655367231638</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>14.97175141242938</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.954802259887006</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.2824858757062147</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7483485751393471766</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>316</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>These are the steps I followed on my first week of my UGC journey! If you’re getting into UGC the biggest piece of advice I have is to fully understand all the terminology and the requirements brands are going to want from you before you start working with the brands as this will lead you to look more professional etc.</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>7.59493670886076</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>6.329113924050633</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.265822784810127</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>0.3164556962025317</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7483111581115485462</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>279</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>34</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Some Spa UGC 🧖🏽‍♀️
 -
 If you would like in person UGC content like this created for your own Spa, Restaurant, Hotel, Air BnB etc. please get in touch 👇🏼</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>13.26164874551971</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>12.18637992831541</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.075268817204301</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7482732634238455062</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>312</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>40</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>GRWM in Krakow to film some UGC videos 🎥
 -
 #grwm #ugccreator #ukugccreator #ugccreatoruk #grwmonholiday</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>14.1025641025641</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>12.82051282051282</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.282051282051282</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7482479256744856854</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>328</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>34</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>typical day in my life when I’m working 7-4pm 🫶🏼
 -
 #ugc #ugccreator #dayinmylife #dayinthelife</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>11.58536585365854</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>10.36585365853658</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.219512195121951</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.6097560975609756</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7481605837459328278</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>571</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>52</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Our first day in krakow 🇵🇱
 -
 #thingstodoinkrakow #whattodoinkrakow #behappymuseum #mrpancake</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>10.50788091068301</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>9.106830122591944</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.401050788091068</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>0.5253940455341506</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7481355708156464406</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>109</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>7</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>I absolutely love my TRIP Magnesium Powder it tastes absolutely divine, get yours whilst you still can on TikTok shop</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>11.92660550458716</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>6.422018348623854</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>5.504587155963304</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7481250115768831254</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>462</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>67</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>12</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>puts a bit of a brighter note on your way to work🍃🪺💫🌷
 -
 if you’re a brand looking for your next UGC creator👇🏼</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>17.0995670995671</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>14.5021645021645</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.597402597402597</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>0.4329004329004329</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7480911227670072598</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>595</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>3</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>I loved my dose for bloating from @Wild Dose #wilddose try it today to have a bloat free belly!
 -
 #ugccreatoruk</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>2.521008403361344</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>2.016806722689076</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5042016806722689</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.1680672268907563</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7480547315984420118</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>4593</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>186</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>55</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>These are all the places we ate in krakow 🇵🇱
 The food was lovely from all of these restaurants so I would recommend any of them!</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>4.093185281950794</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>4.049640757674722</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.04354452427607228</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>1.197474417591988</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7480135109836918038</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>315</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>43</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>These are all the places we ate in krakow 🇵🇱
 The food was lovely from all of these restaurants so I would recommend any of them!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>13.65079365079365</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.6349206349206349</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.3174603174603174</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7479775652997074198</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>356</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>21</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>7</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>we tried SleepSeal mouth tape to see if it would reduce Jonnys snoring and….. it did! #mouthtaping #morningshed</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>7.865168539325842</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>5.898876404494382</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.966292134831461</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7479707995597753622</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>288</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>19</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>UGC BLOOPERS PART 1
 -
 #ugcbloopers #ugcouttakes #ugcrawfootage #hotelugc #ukugccreator</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>6.597222222222222</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>6.597222222222222</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7479455177171307798</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>281</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>17</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>My last vlog from Scandinavia #scandinaviavlog #copenhagenvlog #ukugccreator #ugcnet</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>7.11743772241993</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>6.049822064056939</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.067615658362989</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7479040629398392086</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>217</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>32</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>My last GRWM from Scandinavia #grwm #ugccommunity #ugccreatoruk #fyp</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>17.51152073732719</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>14.74654377880184</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.764976958525346</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7478759648636521750</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>248</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>16</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Have you tried The Frangrance World?
 -
@@ -1873,156 +2340,156 @@
 #thefragranceworld #fragranceugc</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>6.854838709677419</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.4032258064516129</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7478637712828861718</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>282</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>40</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>My first day in Copenhagen 🇩🇰
 -
 #copenhagenvlog #dayinmylife #ukugccreator #ugccreatoruk #ugccommunity</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>15.60283687943262</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>14.18439716312057</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.418439716312057</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>0.7092198581560284</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7478341106061692182</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>265</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>41</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>GRWM on the overnight ferry ⛴️
 -
 #grwm #ukugccreator #overnightferry #fyp</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>16.60377358490566</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>15.47169811320755</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>1.132075471698113</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7477845972865830166</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>120</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>15</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>6</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>one of the best hotels I’ve ever stayed in without a doubt
 -
@@ -2031,664 +2498,196 @@
 #travelugc #hotelugc</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>17.5</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>12.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7477602808636722454</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>816</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>15</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Last day in Oslo before going on the overnight ferry to Copenhagen ⛴️
 -
 #travelugc #ukugccreator</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>1.838235294117647</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>1.838235294117647</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7477503338808921366</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>908</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>46</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Time has flown by since lockdown but nevertheless I have loved the journey it took my on because without lockdown I don’t believe I would be where I am in life now!</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>5.066079295154185</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>5.066079295154185</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/photo/7476434179777940758</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>304</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>15</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>I have just created an Instagram dedicated to UGC, I would appreciate any follow, comment or support over there. The name is @eviewmitchellugc 🫶🏼</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>6.578947368421052</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>4.934210526315789</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.644736842105263</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>0.9868421052631579</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@eviewmitchellugc/video/7476117455086095638</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>272</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>28</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>GRWM for a day in Oslo and to catch the overnight ferry ⛴️ 🇳🇴
--
-#grwm #norway #oslo #overnightferry</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10.66176470588235</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10.29411764705882</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.3676470588235294</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.3676470588235294</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475770032304180502</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>263</v>
-      </c>
-      <c r="C36" t="n">
-        <v>38</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>full day spent in Oslo 🇳🇴
--
-#oslovlog #travelvlog #ugccreator #ukugccreator #creatorsearchinsights</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>15.5893536121673</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14.44866920152091</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.140684410646388</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.3802281368821293</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475358859415145750</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>359</v>
-      </c>
-      <c r="C37" t="n">
-        <v>54</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>GRWM for my first day in Oslo 🇳🇴
--
-#grwm #oslovlog #travelvlog #ugccreator #ukugccreator #travelugc</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>15.59888579387187</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15.04178272980501</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.5571030640668524</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.2785515320334262</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475034270659202326</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>324</v>
-      </c>
-      <c r="C38" t="n">
-        <v>34</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Day 2 in Stockholm 🇸🇪
--
-#dayinmylife #travelvlog #thingstodoinstockholm #ugccreator #ukugccreator</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10.49382716049383</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.6172839506172839</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7474581544166903062</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>473</v>
-      </c>
-      <c r="C39" t="n">
-        <v>72</v>
-      </c>
-      <c r="D39" t="n">
-        <v>13</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Always busy creating content 🫶🏼
--
-#ugccommunity #ugcnet #ugccreator #ukugccreator #ugccreatoruk #ugc</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>17.97040169133193</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15.22198731501057</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.748414376321353</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.8456659619450317</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7474508950210235670</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>312</v>
-      </c>
-      <c r="C40" t="n">
-        <v>51</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>GRWM for my second day in Stockholm 🇸🇪
--
-#grwm #sweden #stockholm #ugccommunity #ugccreator #ukugccreator</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>16.34615384615385</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16.34615384615385</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473815539186519318</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>338</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>spend the first day in Stockholm with us 🇸🇪
--
-💌eviewmitchell@yahoo.com
--
-#stockholmvlog</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.21301775147929</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.479289940828402</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.2958579881656805</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473467881942945046</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>295</v>
-      </c>
-      <c r="C42" t="n">
-        <v>61</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>GRWM for day 1 in Stockholm 💋
--
-#grwm #grwmonholiday #grwmtraveledition #ukugccreator #ugccreator</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>21.35593220338983</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20.67796610169491</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.6779661016949152</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473405487149534486</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>362</v>
-      </c>
-      <c r="C43" t="n">
-        <v>23</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>the content can’t stop… even on holiday #contentcreator #ukugccreator #travelugc #foryou</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6.629834254143646</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.353591160220995</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2762430939226519</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473043257094720790</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>349</v>
-      </c>
-      <c r="C44" t="n">
-        <v>40</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2698,98 +2697,98 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>The Clarion Sign Hotel in Stockholm 🇸🇪
--
-UGC example not an ad**
--
-If this is the sort of content your hotel is looking for please contact eviewmitchell@yahoo.com</t>
+          <t>GRWM for a day in Oslo and to catch the overnight ferry ⛴️ 🇳🇴
+-
+#grwm #norway #oslo #overnightferry</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>14.32664756446991</v>
+        <v>10.66176470588235</v>
       </c>
       <c r="I44" t="n">
-        <v>11.46131805157593</v>
+        <v>10.29411764705882</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.865329512893983</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2865329512893983</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-28</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7472786347191766294</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475770032304180502</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>travel with us to Stockholm 🇸🇪 #travelugc #ukugccreator #stockholmvlog #traveltosweden #travelvlog</t>
+          <t>full day spent in Oslo 🇳🇴
+-
+#oslovlog #travelvlog #ugccreator #ukugccreator #creatorsearchinsights</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>11.36363636363636</v>
+        <v>15.5893536121673</v>
       </c>
       <c r="I45" t="n">
-        <v>11.36363636363636</v>
+        <v>14.44866920152091</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.140684410646388</v>
       </c>
       <c r="L45" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.3802281368821293</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7472392518454234390</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475358859415145750</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="C46" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -2798,48 +2797,50 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>GRWM for the airport ✈️ stay tuned for all the travel content #grwm #grwmfortheairport #travelugc #holidayprep</t>
+          <t>GRWM for my first day in Oslo 🇳🇴
+-
+#grwm #oslovlog #travelvlog #ugccreator #ukugccreator #travelugc</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>19.6875</v>
+        <v>15.59888579387187</v>
       </c>
       <c r="I46" t="n">
-        <v>19.0625</v>
+        <v>15.04178272980501</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.625</v>
+        <v>0.5571030640668524</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.2785515320334262</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-25</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7471957335104146710</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7475034270659202326</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
@@ -2852,22 +2853,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pack with me for my trip to Scandinavia 🇸🇪🇳🇴🇩🇰
--
-#packwithme #holidayprep #ugctravel #travelugc #outfitplanning</t>
+          <t>Day 2 in Stockholm 🇸🇪
+-
+#dayinmylife #travelvlog #thingstodoinstockholm #ugccreator #ukugccreator</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10.17543859649123</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I47" t="n">
-        <v>9.473684210526317</v>
+        <v>10.49382716049383</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2877,128 +2878,128 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-25</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7471340213126565142</t>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7474581544166903062</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="C48" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Valentine’s Day GRWM
--
-#valentinesdaygrwm #grwmforvalentines #valentinesday2025 #grwm</t>
+          <t>Always busy creating content 🫶🏼
+-
+#ugccommunity #ugcnet #ugccreator #ukugccreator #ugccreatoruk #ugc</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>17.72151898734177</v>
+        <v>17.97040169133193</v>
       </c>
       <c r="I48" t="n">
-        <v>16.77215189873418</v>
+        <v>15.22198731501057</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.949367088607595</v>
+        <v>2.748414376321353</v>
       </c>
       <c r="L48" t="n">
-        <v>0.949367088607595</v>
+        <v>0.8456659619450317</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7471238222970899734</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7474508950210235670</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>our last day in Edinburgh:(
--
-#thingstodoinedinburgh #edinburghvlog #ugccreatoruk #ukugccreator #travelwithme</t>
+          <t>GRWM for my second day in Stockholm 🇸🇪
+-
+#grwm #sweden #stockholm #ugccommunity #ugccreator #ukugccreator</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>13.97260273972603</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="I49" t="n">
-        <v>12.05479452054795</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.917808219178082</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.547945205479452</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@eviewmitchellugc/video/7470936875667131670</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473815539186519318</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -3008,32 +3009,86 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>spend the day with us in Edinburgh 🏴󠁧󠁢󠁳󠁣󠁴󠁿
--
-#edinburgh #thingstodoinedinburgh #edinburghvlog</t>
+          <t>spend the first day in Stockholm with us 🇸🇪
+-
+💌eviewmitchell@yahoo.com
+-
+#stockholmvlog</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7.547169811320755</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I50" t="n">
-        <v>6.60377358490566</v>
+        <v>6.21301775147929</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9433962264150944</v>
+        <v>1.479289940828402</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2358490566037736</v>
+        <v>0.2958579881656805</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@eviewmitchellugc/video/7473467881942945046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>295</v>
+      </c>
+      <c r="C51" t="n">
+        <v>61</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>GRWM for day 1 in Stockholm 💋
+-
+#grwm #grwmonholiday #grwmtraveledition #ukugccreator #ugccreator</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>21.35593220338983</v>
+      </c>
+      <c r="I51" t="n">
+        <v>20.67796610169491</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
         </is>
       </c>
     </row>
